--- a/biology/Histoire de la zoologie et de la botanique/Jacques_von_Bedriaga/Jacques_von_Bedriaga.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_von_Bedriaga/Jacques_von_Bedriaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Vladimir von Bedriaga (ou Jacob Vladimirovitch Bedriaga ou Bedryagha) est un zoologiste russe, né en 1854 dans le village de Kriniz près de Voronej à 200 km au sud de Moscou et mort en 1906.
 Il fait ses études à l’université de Moscou sous la direction d'Anatoli Petrovitch Bogdanov (1834-1896) mais doit quitter la ville à cause de problèmes de santé. Il se rend alors en Allemagne où il travaille avec deux grands spécialistes de l’anatomie comparée de l’université de Iéna : Ernst Haeckel (1834-1919), un élève de Johannes Peter Müller (1801-1858), et Carl Gegenbaur (1826-1903).
@@ -517,7 +529,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(Liste partielle)
 1886 : Beiträge zur Kenntnis der Lacertiden-Familie (Lacerta, Algiroides, Tropidosaura, Zerzumia, Bettaia). Abh. Senck. Ges., 14 : 17-444.</t>
